--- a/static/schedule.xlsx
+++ b/static/schedule.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:W57"/>
+  <dimension ref="B2:W104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>Балашиха (а/к 1377) - ст. Железнодорожная</t>
+          <t>Реутово - Балашиха (Новский кв.)</t>
         </is>
       </c>
     </row>
@@ -530,8 +530,10 @@
           <t>Номер маршрута:</t>
         </is>
       </c>
-      <c r="L3" s="2" t="n">
-        <v>29</v>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>25к</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -608,32 +610,82 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Автоколонна № 1377</t>
+          <t>МЦД Реутов</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>07:02</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>08:32</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>14:37</t>
+          <t>18:02</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>20:02</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>08:02</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>10:02</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>17:02</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>19:02</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>21:02</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>07:02</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>09:02</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>16:02</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>20:02</t>
         </is>
       </c>
     </row>
@@ -645,32 +697,82 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Хлебозавод</t>
+          <t>ул. Ленина</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>06:17</t>
+          <t>07:04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>09:04</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>14:40</t>
+          <t>18:04</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17:39</t>
+          <t>20:04</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>08:04</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>10:04</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>17:04</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>21:04</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>07:04</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>09:04</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>18:04</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>20:04</t>
         </is>
       </c>
     </row>
@@ -682,32 +784,82 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Центральный офис Центра "Мои Документы"</t>
+          <t>Реутовский горсовет</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>06:19</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>09:06</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>16:06</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>14:44</t>
+          <t>18:06</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>17:44</t>
+          <t>20:06</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>08:06</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>10:06</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>17:06</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>19:06</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>21:06</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>07:06</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>09:06</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>16:06</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>18:06</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>20:06</t>
         </is>
       </c>
     </row>
@@ -719,32 +871,82 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Леоново</t>
+          <t>пл. Академика Челомея</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>06:23</t>
+          <t>07:08</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>08:42</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>18:08</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>20:08</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>08:08</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>10:08</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>21:08</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>07:08</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>09:08</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>16:08</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>18:08</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>20:08</t>
         </is>
       </c>
     </row>
@@ -756,32 +958,82 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Институт</t>
+          <t>ул. Победы</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>06:25</t>
+          <t>07:13</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>08:44</t>
+          <t>09:13</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>16:13</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>18:13</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>17:49</t>
+          <t>20:13</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>08:13</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>17:13</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>21:13</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>07:13</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>09:13</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>16:13</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>18:13</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>20:13</t>
         </is>
       </c>
     </row>
@@ -793,32 +1045,82 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>а/с Южная</t>
+          <t>Стройка</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>06:26</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>08:46</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>14:51</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>07:15</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>20:15</t>
         </is>
       </c>
     </row>
@@ -830,32 +1132,82 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ул. Некрасова, 5</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>06:28</t>
+          <t>07:17</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>08:48</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>16:17</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>18:17</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>20:17</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>08:17</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>19:17</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>21:17</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>07:17</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>09:17</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>16:17</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>18:17</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>20:17</t>
         </is>
       </c>
     </row>
@@ -867,32 +1219,82 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Военная академия</t>
+          <t>ГИБДД</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:19</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>09:19</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>14:55</t>
+          <t>18:19</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>20:19</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>08:19</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>10:19</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>17:19</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>19:19</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>21:19</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>07:19</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>09:19</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>16:19</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>18:19</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>20:19</t>
         </is>
       </c>
     </row>
@@ -904,32 +1306,82 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Онкологическая б-ца</t>
+          <t>дивизия им. Дзержинского</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>06:32</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>08:53</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>16:20</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>17:58</t>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>07:20</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>16:20</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>20:20</t>
         </is>
       </c>
     </row>
@@ -941,32 +1393,82 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Баня</t>
+          <t>р. Чернявка</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>06:33</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>08:55</t>
+          <t>09:21</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:21</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:21</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:21</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>08:21</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>10:21</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>17:21</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>19:21</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>21:21</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>07:21</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>09:21</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>16:21</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>18:21</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>20:21</t>
         </is>
       </c>
     </row>
@@ -978,32 +1480,82 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Зверосовхоз</t>
+          <t>сан. "Красная роза"</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>06:35</t>
+          <t>07:23</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>08:57</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>16:23</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>18:23</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>18:02</t>
+          <t>20:23</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>10:23</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>17:23</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>19:23</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>21:23</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>07:23</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>09:23</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>16:23</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>18:23</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>20:23</t>
         </is>
       </c>
     </row>
@@ -1015,32 +1567,82 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>кв. Соколовка</t>
+          <t>Горенки</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>06:37</t>
+          <t>07:25</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>08:59</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>16:25</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>18:25</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>18:04</t>
+          <t>20:25</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>21:25</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>07:25</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>16:25</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>18:25</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>20:25</t>
         </is>
       </c>
     </row>
@@ -1052,32 +1654,82 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Виноградники</t>
+          <t>Больница</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>06:38</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>09:01</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>12:36</t>
+          <t>16:28</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>18:28</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>18:09</t>
+          <t>20:28</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>08:28</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>10:28</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>21:28</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>07:28</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>09:28</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>16:28</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>18:28</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>20:28</t>
         </is>
       </c>
     </row>
@@ -1089,32 +1741,82 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Гидрометтехникум</t>
+          <t>Горсовет</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>06:40</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09:05</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>18:13</t>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>20:30</t>
         </is>
       </c>
     </row>
@@ -1126,32 +1828,82 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>платф. Кучино</t>
+          <t>Леоново</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>06:42</t>
+          <t>07:32</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>12:43</t>
+          <t>16:32</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>18:32</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>18:17</t>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>08:32</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>10:32</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>21:32</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>07:32</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>16:32</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>18:32</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>20:32</t>
         </is>
       </c>
     </row>
@@ -1163,32 +1915,82 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ул. Керамическая</t>
+          <t>РГАЗУ</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>06:43</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>16:34</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>18:34</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>18:19</t>
+          <t>20:34</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>08:34</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>17:34</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>21:34</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>07:34</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>09:34</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>16:34</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>18:34</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>20:34</t>
         </is>
       </c>
     </row>
@@ -1200,32 +2002,82 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>школа № 5, ЦГБ</t>
+          <t>Онкологическая б-ца</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>06:45</t>
+          <t>07:36</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>16:36</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>18:36</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>18:21</t>
+          <t>20:36</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>08:36</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>21:36</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>07:36</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>16:36</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>18:36</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>20:36</t>
         </is>
       </c>
     </row>
@@ -1237,32 +2089,82 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ул. Граничная</t>
+          <t>Военная академия</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>06:46</t>
+          <t>07:38</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09:13</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>16:38</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>15:18</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>18:22</t>
+          <t>20:38</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>21:38</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>16:38</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>20:38</t>
         </is>
       </c>
     </row>
@@ -1274,32 +2176,82 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Жилгородок</t>
+          <t>ул. Некрасова, 5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>06:47</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>09:14</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>18:23</t>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>08:40</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>21:40</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>07:40</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>20:40</t>
         </is>
       </c>
     </row>
@@ -1311,32 +2263,82 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ул. Октябрьская, 37</t>
+          <t>а/с Южная</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>06:48</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>16:40</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>15:20</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>18:25</t>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>08:40</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>21:40</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>07:40</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>16:40</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>20:40</t>
         </is>
       </c>
     </row>
@@ -1348,32 +2350,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ст. Железнодорожная</t>
+          <t>МЦД Реутов</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>06:48</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>12:50</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>18:25</t>
+          <t>12:02</t>
         </is>
       </c>
     </row>
@@ -1385,920 +2377,670 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ст. Железнодорожная</t>
+          <t>ул. Ленина</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>06:48</t>
+          <t>12:04</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>12:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Реутовский горсовет</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>12:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>пл. Академика Челомея</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ул. Победы</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>13:13</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Стройка</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>12:17</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>12:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ГИБДД</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>13:19</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>дивизия им. Дзержинского</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>р. Чернявка</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>сан. "Красная роза"</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>12:23</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>12:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Горенки</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>13:25</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Больница</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>12:28</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>12:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Горсовет</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Леоново</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>РГАЗУ</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Онкологическая б-ца</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>13:36</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Военная академия</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ул. Некрасова, 5</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>а/с Южная</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>13:42</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Южный</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>12:44</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>12:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>СОЮЗДОРНИИ</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>13:46</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Лесная</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>13:48</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>12:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Безменково</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>12:50</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>18:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ст. Железнодорожная</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>07:12</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>13:42</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>16:02</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>19:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Жилгородок</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>07:13</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>09:48</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>13:43</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>16:03</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>19:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ул. Граничная</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>07:15</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>13:45</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>16:05</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>19:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>школа № 5, ЦГБ</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>07:16</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>09:51</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>13:46</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>16:06</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>19:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ул. Керамическая</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>07:19</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>09:54</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>13:49</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>16:09</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>19:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>платф. Кучино</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>07:21</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>09:56</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>13:51</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>16:11</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>19:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Гидрометтехникум</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>07:23</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>09:57</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>13:52</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>16:12</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>19:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Виноградники</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>07:25</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>09:59</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>13:54</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>16:14</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>19:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>кв. Соколовка</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>07:27</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>10:01</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Новая</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>12:56</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>13:56</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>16:16</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>19:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Зверосовхоз</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>07:29</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>10:03</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>13:58</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>16:18</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>19:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Баня</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>07:32</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>10:05</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>16:20</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>19:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Онкологическая б-ца</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>07:34</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>10:07</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>14:02</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>16:22</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>19:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Военная академия</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>07:36</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>10:08</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>14:03</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>16:23</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>19:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ул. Некрасова, 5</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>07:39</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>10:09</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>14:04</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>16:24</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>19:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>а/с Южная</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>07:40</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>10:10</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>14:05</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>16:25</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>19:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>а/с Южная</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>07:40</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>10:10</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>14:05</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>16:25</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>19:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>а/с Южная</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>07:41</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>10:11</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>14:06</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>16:26</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>19:24</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>ул. Некрасова, 5</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>07:43</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>10:13</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>14:08</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>16:28</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>19:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Военная академия</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>14:10</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>19:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Онкологическая б-ца</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>07:47</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>14:12</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>16:32</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>РГАЗУ</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>07:50</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>10:20</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>14:15</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>16:35</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>19:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Леоново</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>07:53</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>10:22</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>16:37</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>19:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Горсовет</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>07:55</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>10:24</t>
-        </is>
-      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>14:19</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>16:39</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>19:37</t>
+          <t>12:56</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="8" t="inlineStr">
-        <is>
-          <t>Обратное</t>
+      <c r="B56" s="7" t="inlineStr">
+        <is>
+          <t>Прямое</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Больница</t>
+          <t>Кладбище "Новское"</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>12:56</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>13:56</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>14:20</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>16:40</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>19:38</t>
+          <t>12:56</t>
         </is>
       </c>
     </row>
@@ -2310,92 +3052,2478 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Автоколонна № 1377</t>
+          <t>а/с Южная</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>16:40</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>19:01</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>07:01</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>09:01</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>18:01</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>20:01</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>06:01</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>08:01</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>17:01</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ул. Некрасова, 5</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>06:03</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>07:03</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>09:03</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>12:03</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>18:03</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>20:03</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>06:03</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>08:03</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>11:03</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>17:03</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>19:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Военная академия</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>07:05</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>09:05</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>12:05</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>18:05</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>20:05</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>11:05</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>17:05</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Онкологическая б-ца</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>06:07</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>08:07</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>07:07</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>09:07</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>12:07</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>18:07</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>20:07</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>06:07</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>08:07</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>17:07</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>РГАЗУ</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>06:10</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>07:10</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>09:10</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>06:10</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>19:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Леоново</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>06:13</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>08:13</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>17:13</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>07:13</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>09:13</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>18:13</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>20:13</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>06:13</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>08:13</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>17:13</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>19:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Горсовет</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>07:15</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>20:15</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Горенки</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>06:18</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>08:18</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>07:18</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>12:18</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>18:18</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>20:18</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>06:18</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>08:18</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>11:18</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>17:18</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>19:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>сан. "Красная роза"</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>07:20</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>19:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>дивизия им. Дзержинского</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>06:22</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>08:22</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>07:22</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>09:22</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>18:22</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>20:22</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>06:22</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>08:22</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>17:22</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ГИБДД</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>08:24</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>11:24</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>17:24</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>07:24</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>09:24</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>12:24</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>18:24</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>20:24</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>06:24</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>08:24</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>11:24</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>17:24</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Стройка</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>06:28</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>08:28</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>11:28</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>07:28</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>09:28</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>12:28</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>18:28</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>20:28</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>06:28</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>08:28</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>11:28</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>17:28</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Ивановское</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>06:32</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>08:32</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>07:32</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>09:32</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>18:32</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>20:32</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>06:32</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>08:32</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>17:32</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ул. Победы</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>06:34</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>08:34</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>17:34</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>07:34</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>09:34</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>18:34</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>20:34</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>06:34</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>08:34</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>11:34</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>17:34</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>19:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>пл. Академика Челомея</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>06:36</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>08:36</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>07:36</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>09:36</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>18:36</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>20:36</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>06:36</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>08:36</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>11:36</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>17:36</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>19:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Реутовский горсовет</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
           <t>19:38</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>12:38</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>20:38</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>06:38</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>08:38</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>11:38</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>17:38</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>19:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ул. Ленина</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>06:40</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>08:40</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>07:40</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>06:40</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>08:40</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>МЦД Реутов</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>06:40</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>08:40</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>07:40</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>18:40</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>06:40</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>08:40</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>17:40</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Кладбище "Новское"</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>13:01</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>14:01</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>13:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ТЦ "Контур"</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>13:03</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>14:03</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>13:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>ТЦ "Контур"</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>13:04</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>14:04</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>13:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Новая</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>13:06</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>14:06</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>13:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Безменково</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>13:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Лесная</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>13:09</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>14:09</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>13:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>СОЮЗДОРНИИ</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>14:11</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Южный</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>13:13</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>14:13</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>13:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Институт</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Институт</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>14:16</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>13:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>а/с Южная</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>13:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ул. Некрасова, 5</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>13:19</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Военная академия</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>14:21</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Онкологическая б-ца</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>14:23</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>РГАЗУ</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>14:26</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Леоново</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>13:29</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>14:29</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>13:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Горсовет</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>13:31</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>14:31</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>13:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Горенки</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>14:34</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>сан. "Красная роза"</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>13:36</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>14:36</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>13:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>дивизия им. Дзержинского</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>14:38</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>ГИБДД</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>13:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Стройка</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>14:44</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>13:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Ивановское</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>13:48</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>14:48</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>13:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>ул. Победы</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>13:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>пл. Академика Челомея</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>13:52</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>14:52</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>13:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Реутовский горсовет</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>13:54</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>14:54</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>13:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>ул. Ленина</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>14:56</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="8" t="inlineStr">
+        <is>
+          <t>Обратное</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>МЦД Реутов</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>14:56</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>13:56</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="102">
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="K2:W2"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B57:D57"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B101:D101"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B69:D69"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B103:D103"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B95:D95"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B79:D79"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B50:D50"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B97:D97"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B71:D71"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
